--- a/TestAutomataDFA_NFA/ResultadosFinal/Plantilla.xlsx
+++ b/TestAutomataDFA_NFA/ResultadosFinal/Plantilla.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="4485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="4485"/>
   </bookViews>
   <sheets>
     <sheet name="Construccion_Navegacion" sheetId="1" r:id="rId1"/>
     <sheet name="Construccion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A22:AB56"/>
+  <oleSize ref="A1:AB35"/>
 </workbook>
 </file>
 
@@ -14160,8 +14160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46240,7 +46240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
